--- a/Revolt_robotics_2024-3.xlsx
+++ b/Revolt_robotics_2024-3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="13660" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="17860" windowHeight="12000" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -400,10 +400,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -411,74 +411,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,24 +430,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,15 +445,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,7 +493,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,7 +651,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,13 +717,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,67 +765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,25 +789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,16 +824,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -869,37 +889,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,148 +917,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16144,7 +16144,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
@@ -16285,23 +16285,27 @@
       </c>
       <c r="I2">
         <f>J2+O2+AB2</f>
-        <v>474</v>
+        <v>655</v>
       </c>
       <c r="J2">
         <f>SUM(K2:M2)</f>
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="K2">
         <f>_xlfn.MAXIFS(numbs!D$3:D$2000,numbs!A$3:A$2000,MSP!B2)+_xlfn.MAXIFS(numbs!D$3:D$2000,numbs!A$3:A$2000,MSP!C2)+_xlfn.MAXIFS(numbs!D$3:D$2000,numbs!A$3:A$2000,MSP!D2)</f>
         <v>3</v>
       </c>
       <c r="L2">
-        <f>_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!B2)+_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!C2)+_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!D2)</f>
-        <v>45</v>
+        <f>(_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!B2)+_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!C2)+_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!D2))*2</f>
+        <v>90</v>
       </c>
       <c r="M2">
-        <f>_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!B2)+_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!C2)+_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!D2)</f>
-        <v>34</v>
+        <f>(_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!B2)+_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!C2)+_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!D2))*5</f>
+        <v>170</v>
+      </c>
+      <c r="N2">
+        <f>_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!B2)+_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!C2)+_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!D2)+_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!B2)+_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!C2)+_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!D2)</f>
+        <v>79</v>
       </c>
       <c r="O2">
         <f>SUM(P2,U2)</f>
@@ -16369,7 +16373,7 @@
       </c>
       <c r="AE2">
         <f>N2+Z2</f>
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="AF2" s="7">
         <f ca="1">SUMIF(avg!A$3:A$2000,Predictor!B2,avg!AE$2:AE$81)+SUMIF(avg!A$3:A$2000,Predictor!C2,avg!AE$2:AE$81)+SUMIF(avg!A$3:A$2000,Predictor!D2,avg!AE$2:AE$81)</f>
@@ -16407,23 +16411,27 @@
       </c>
       <c r="I3">
         <f>J3+O3+AB3</f>
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="J3">
         <f>SUM(K3:M3)</f>
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="K3">
         <f>_xlfn.MAXIFS(numbs!D$3:D$2000,numbs!A$3:A$2000,MSP!B3)+_xlfn.MAXIFS(numbs!D$3:D$2000,numbs!A$3:A$2000,MSP!C3)+_xlfn.MAXIFS(numbs!D$3:D$2000,numbs!A$3:A$2000,MSP!D3)</f>
         <v>3</v>
       </c>
       <c r="L3">
-        <f>_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!B3)+_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!C3)+_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!D3)</f>
-        <v>14</v>
+        <f>(_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!B3)+_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!C3)+_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!D3))*2</f>
+        <v>28</v>
       </c>
       <c r="M3">
-        <f>_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!B3)+_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!C3)+_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!D3)</f>
-        <v>14</v>
+        <f>(_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!B3)+_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!C3)+_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!D3))*5</f>
+        <v>70</v>
+      </c>
+      <c r="N3">
+        <f>_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!B3)+_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!C3)+_xlfn.MAXIFS(numbs!E$3:E$2000,numbs!A$3:A$2000,MSP!D3)+_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!B3)+_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!C3)+_xlfn.MAXIFS(numbs!G$3:G$2000,numbs!A$3:A$2000,MSP!D3)</f>
+        <v>28</v>
       </c>
       <c r="O3">
         <f>SUM(P3,U3)</f>
@@ -16491,7 +16499,7 @@
       </c>
       <c r="AE3">
         <f>N3+Z3</f>
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="AF3" s="7">
         <f ca="1">SUMIF(avg!A$3:A$2000,Predictor!B3,avg!AE$2:AE$81)+SUMIF(avg!A$3:A$2000,Predictor!C3,avg!AE$2:AE$81)+SUMIF(avg!A$3:A$2000,Predictor!D3,avg!AE$2:AE$81)</f>
